--- a/Motherboard/REV20200407C/reviews/Schematic.xlsx
+++ b/Motherboard/REV20200407C/reviews/Schematic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\git\SensorCard\Motherboard\REV20200407C\reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4344FB-89C1-44FA-86CD-A55647033B3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDED27C-B17C-4E3C-A791-EABD930367AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12330" yWindow="-14510" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
